--- a/data/trans_orig/P14B98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C43A1A-17DF-4158-B43C-35224F9F1535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5167E4CF-8BB1-4D68-A3DF-8BE9FF162FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{959A0053-3CC2-4AE6-BB58-B7C5E6AD84CF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32D6C2B0-7272-47EE-9D27-EADD752A4B50}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -156,19 +156,19 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -177,19 +177,19 @@
     <t>36,87%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -243,19 +243,19 @@
     <t>48,12%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
   </si>
   <si>
     <t>64,5%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>17,81%</t>
@@ -267,19 +267,19 @@
     <t>51,88%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
   </si>
   <si>
     <t>35,5%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
   </si>
   <si>
     <t>48,53%</t>
@@ -291,49 +291,49 @@
     <t>67,48%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7CAF4D-911A-4AAF-879B-7B4737BFD368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C7DCF-4D18-4CAA-8FF9-FDE41F5F35DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1490,7 +1490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893C83BB-2A28-40EA-AE48-10BD73687F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA75B0-062D-4935-93A6-9344433CDAAC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B98-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5167E4CF-8BB1-4D68-A3DF-8BE9FF162FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56C1A9CB-69DD-45A4-BCD0-D094DA4589AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{32D6C2B0-7272-47EE-9D27-EADD752A4B50}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5B24A77C-AEFD-478F-B956-AD9352A0ED03}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="101">
   <si>
     <t>Población cuya otra enfermedad le limita 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -84,256 +84,262 @@
     <t>67,74%</t>
   </si>
   <si>
-    <t>18,65%</t>
+    <t>18,48%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuya otra enfermedad le limita 2 en 2016 (Tasa respuesta: 0,32%)</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>51,47%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuya otra enfermedad le limita 2 en 2015 (Tasa respuesta: 0,32%)</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>51,47%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
 </sst>
 </file>
@@ -745,7 +751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF1C7DCF-4D18-4CAA-8FF9-FDE41F5F35DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41071D7-63CA-4498-A97E-950DF09E302A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1490,7 +1496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAA75B0-062D-4935-93A6-9344433CDAAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBA4966-1B90-467B-B0BD-869190C76D18}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2088,13 +2094,13 @@
         <v>5499</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2103,13 +2109,13 @@
         <v>14189</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2130,13 @@
         <v>4187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -2139,13 +2145,13 @@
         <v>4349</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -2154,13 +2160,13 @@
         <v>8536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
